--- a/Entregaveis/Entrega_1_RepositorioSemantico/Terminologias/SNOMED/SNOMED-GPS/CollectionVaccines.xlsx
+++ b/Entregaveis/Entrega_1_RepositorioSemantico/Terminologias/SNOMED/SNOMED-GPS/CollectionVaccines.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/Entrega_1_RepositorioSemantico/Terminologias/SNOMED/SNOMED-GPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF886A5-76EE-574C-BD01-29FF266ABA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B4A166-5452-F349-B2C1-14C036B2530E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{FC287AEC-7B73-7A40-BFCE-37E28E29CEC6}"/>
+    <workbookView xWindow="980" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{FC287AEC-7B73-7A40-BFCE-37E28E29CEC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="vaccines GPS" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="vaccines GPS" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="download_2" localSheetId="1">Sheet2!$A$1:$W$47</definedName>
-    <definedName name="download_2" localSheetId="0">'vaccines GPS'!$A$77:$W$122</definedName>
-    <definedName name="vaccines_parte1" localSheetId="0">'vaccines GPS'!$A$1:$W$76</definedName>
+    <definedName name="download_2" localSheetId="2">Sheet2!$A$1:$W$47</definedName>
+    <definedName name="download_2" localSheetId="1">'vaccines GPS'!$A$77:$W$122</definedName>
+    <definedName name="VaccineCodesGPS___Sheet1_8" localSheetId="0">Sheet3!$A$1:$BL$2</definedName>
+    <definedName name="vaccines_parte1" localSheetId="1">'vaccines GPS'!$A$1:$W$76</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -101,7 +103,77 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{48419CF8-44AA-C740-A3F8-9CAA00E25E49}" name="vaccines-parte1" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="3" xr16:uid="{D8FB1E87-C318-2F40-926F-7536F33683FC}" name="VaccineCodesGPS - Sheet1-8" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/beatrizdefarialeao/Downloads/VaccineCodesGPS - Sheet1-8.csv" decimal="," thousands="." comma="1">
+      <textFields count="64">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{48419CF8-44AA-C740-A3F8-9CAA00E25E49}" name="vaccines-parte1" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/beatrizdefarialeao/Downloads/vaccines-parte1.csv" decimal="," thousands="." comma="1">
       <textFields count="23">
         <textField type="text"/>
@@ -134,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="985">
   <si>
     <t>uuid</t>
   </si>
@@ -2918,6 +2990,177 @@
   </si>
   <si>
     <t>22717</t>
+  </si>
+  <si>
+    <t>resource_type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>public_access</t>
+  </si>
+  <si>
+    <t>logo_url</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>attr:Ex_Num:int</t>
+  </si>
+  <si>
+    <t>attr:ex_name</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>source_type</t>
+  </si>
+  <si>
+    <t>default_locale</t>
+  </si>
+  <si>
+    <t>supported_locales</t>
+  </si>
+  <si>
+    <t>custom_validation_schema</t>
+  </si>
+  <si>
+    <t>canonical_url</t>
+  </si>
+  <si>
+    <t>hierarchy_meaning</t>
+  </si>
+  <si>
+    <t>hierarchy_root_url</t>
+  </si>
+  <si>
+    <t>internal_reference_id</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>collection_reference</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t>revision_date</t>
+  </si>
+  <si>
+    <t>experimental</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t>content_type</t>
+  </si>
+  <si>
+    <t>case_sensitive</t>
+  </si>
+  <si>
+    <t>compositional</t>
+  </si>
+  <si>
+    <t>version_needed</t>
+  </si>
+  <si>
+    <t>description[1]</t>
+  </si>
+  <si>
+    <t>description[2]</t>
+  </si>
+  <si>
+    <t>name[1]</t>
+  </si>
+  <si>
+    <t>name_type[1]</t>
+  </si>
+  <si>
+    <t>attr:Bool_example:bool</t>
+  </si>
+  <si>
+    <t>attr:List_example:list</t>
+  </si>
+  <si>
+    <t>attr:JSON_example:json</t>
+  </si>
+  <si>
+    <t>parent_concept_urls[0]</t>
+  </si>
+  <si>
+    <t>map_type[0]</t>
+  </si>
+  <si>
+    <t>map_from_concept_id[0]</t>
+  </si>
+  <si>
+    <t>map_to_concept_id[0]</t>
+  </si>
+  <si>
+    <t>map_type</t>
+  </si>
+  <si>
+    <t>to_concept_url</t>
+  </si>
+  <si>
+    <t>from_concept_url</t>
+  </si>
+  <si>
+    <t>sort_weight</t>
+  </si>
+  <si>
+    <t>attr:extra_names</t>
+  </si>
+  <si>
+    <t>collection_type</t>
+  </si>
+  <si>
+    <t>immutable</t>
+  </si>
+  <si>
+    <t>jurisdiction[1]</t>
+  </si>
+  <si>
+    <t>jurisdiction[2]</t>
+  </si>
+  <si>
+    <t>collection_url</t>
+  </si>
+  <si>
+    <t>data:expressions</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>https://oclapi2.gointerop.com/orgs/SNOMED/collections/vaccinecodes-gps/</t>
+  </si>
+  <si>
+    <t>https://oclapi2.gointerop.com/orgs/SNOMED/sources/sct/concepts/37146000/</t>
   </si>
 </sst>
 </file>
@@ -2974,14 +3217,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="VaccineCodesGPS - Sheet1-8" connectionId="3" xr16:uid="{AE95F044-26DD-E24E-8120-DBB4873654F9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="download-2" connectionId="2" xr16:uid="{8E32A915-74CF-354C-A44D-92F14E6F2CA3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="vaccines-parte1" connectionId="3" xr16:uid="{ADEC4305-3FD4-9E48-94C4-067EB1CA8E48}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="vaccines-parte1" connectionId="4" xr16:uid="{ADEC4305-3FD4-9E48-94C4-067EB1CA8E48}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="download-2" connectionId="1" xr16:uid="{7CD1C327-0F11-9D44-A167-86957D340839}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -3281,11 +3528,293 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC388757-9C45-764D-BD66-4522256CE1EF}">
+  <dimension ref="A1:BL2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="68" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>929</v>
+      </c>
+      <c r="E1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F1" t="s">
+        <v>931</v>
+      </c>
+      <c r="G1" t="s">
+        <v>932</v>
+      </c>
+      <c r="H1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1" t="s">
+        <v>934</v>
+      </c>
+      <c r="J1" t="s">
+        <v>935</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>936</v>
+      </c>
+      <c r="M1" t="s">
+        <v>937</v>
+      </c>
+      <c r="N1" t="s">
+        <v>938</v>
+      </c>
+      <c r="O1" t="s">
+        <v>939</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>940</v>
+      </c>
+      <c r="R1" t="s">
+        <v>941</v>
+      </c>
+      <c r="S1" t="s">
+        <v>942</v>
+      </c>
+      <c r="T1" t="s">
+        <v>943</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" t="s">
+        <v>944</v>
+      </c>
+      <c r="W1" t="s">
+        <v>945</v>
+      </c>
+      <c r="X1" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>949</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>950</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>951</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>952</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>953</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>954</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>955</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>956</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>957</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>958</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>959</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>960</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>961</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>962</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>963</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>965</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>966</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>967</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>968</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>969</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>970</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>971</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>972</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>973</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>974</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>975</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>976</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>977</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>978</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>979</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>980</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>982</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>983</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F654852D-FCF5-134A-8C7F-2E600C86B1F6}">
   <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="I84" workbookViewId="0">
+      <selection activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3300,7 +3829,7 @@
     <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47" customWidth="1"/>
     <col min="12" max="12" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
@@ -11982,7 +12511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863A4779-5B79-1941-BAF3-3D99A2F5DBE6}">
   <dimension ref="A1:W47"/>
   <sheetViews>
